--- a/Data/testPoints.xlsx
+++ b/Data/testPoints.xlsx
@@ -13,6 +13,10 @@
     <sheet name="Variance" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="distances" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="TiagoLocalizacao1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TiagoLocalizacao2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TiagoLocalizacao0" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="TiagoLocalizacao3" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="TiagoLocalizacao4" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="222">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -792,8 +796,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A174" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5535,7 +5539,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6063,7 +6067,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6584,7 +6588,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7111,7 +7115,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7280,4 +7284,720 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>9.37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data/testPoints.xlsx
+++ b/Data/testPoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="TiagoLocalizacao0" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="TiagoLocalizacao3" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TiagoLocalizacao4" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Experiment2" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="225">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -694,6 +695,15 @@
   </si>
   <si>
     <t xml:space="preserve">Avg. RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiagoLocalizacao10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiagoLocalizacao11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiagoLocalizacao12</t>
   </si>
 </sst>
 </file>
@@ -797,7 +807,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5531,6 +5541,508 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="A2:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>-28</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>-68</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-37</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-39</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5539,7 +6051,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6067,7 +6579,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:H18 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6588,7 +7100,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6628,7 +7140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6654,7 +7166,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6680,7 +7192,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6706,7 +7218,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6732,7 +7244,7 @@
         <v>4.9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6758,7 +7270,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6784,7 +7296,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6810,7 +7322,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6836,7 +7348,7 @@
         <v>4.39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6862,7 +7374,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6888,7 +7400,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6914,7 +7426,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6940,7 +7452,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6966,7 +7478,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6992,7 +7504,7 @@
         <v>4.39</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7018,7 +7530,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7044,7 +7556,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7070,7 +7582,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7114,24 +7626,24 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1.77</v>
       </c>
@@ -7139,7 +7651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0.85</v>
       </c>
@@ -7147,7 +7659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2.83</v>
       </c>
@@ -7155,7 +7667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.85</v>
       </c>
@@ -7163,7 +7675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.37</v>
       </c>
@@ -7171,7 +7683,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.55</v>
       </c>
@@ -7179,7 +7691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2.03</v>
       </c>
@@ -7187,7 +7699,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>3.64</v>
       </c>
@@ -7195,7 +7707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>4.26</v>
       </c>
@@ -7203,7 +7715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.3</v>
       </c>
@@ -7211,7 +7723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.58</v>
       </c>
@@ -7219,7 +7731,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>5.88</v>
       </c>
@@ -7227,7 +7739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>7.17</v>
       </c>
@@ -7235,7 +7747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>7.34</v>
       </c>
@@ -7243,7 +7755,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>7.66</v>
       </c>
@@ -7251,7 +7763,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>9.77</v>
       </c>
@@ -7259,7 +7771,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>9.89</v>
       </c>
@@ -7267,7 +7779,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>10.13</v>
       </c>
@@ -7280,8 +7792,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7294,23 +7806,23 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>9.81</v>
       </c>
@@ -7318,7 +7830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>9.94</v>
       </c>
@@ -7326,7 +7838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>9.81</v>
       </c>
@@ -7334,7 +7846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>10.18</v>
       </c>
@@ -7342,7 +7854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>12.4</v>
       </c>
@@ -7350,7 +7862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>12.4</v>
       </c>
@@ -7358,7 +7870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>12.5</v>
       </c>
@@ -7366,7 +7878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.24</v>
       </c>
@@ -7374,7 +7886,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>7.24</v>
       </c>
@@ -7382,7 +7894,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>7.4</v>
       </c>
@@ -7390,7 +7902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>6.54</v>
       </c>
@@ -7398,7 +7910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>5.4</v>
       </c>
@@ -7406,7 +7918,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.77</v>
       </c>
@@ -7414,7 +7926,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>3.44</v>
       </c>
@@ -7422,7 +7934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>3.44</v>
       </c>
@@ -7430,7 +7942,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>2.02</v>
       </c>
@@ -7438,7 +7950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>1.29</v>
       </c>
@@ -7446,7 +7958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.29</v>
       </c>
@@ -7459,8 +7971,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7473,23 +7985,23 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>4.36</v>
       </c>
@@ -7497,7 +8009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>5.12</v>
       </c>
@@ -7505,7 +8017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3.76</v>
       </c>
@@ -7513,7 +8025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.99</v>
       </c>
@@ -7521,7 +8033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>6.15</v>
       </c>
@@ -7529,7 +8041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6.53</v>
       </c>
@@ -7537,7 +8049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7.06</v>
       </c>
@@ -7545,7 +8057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.97</v>
       </c>
@@ -7553,7 +8065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
@@ -7561,7 +8073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>4.01</v>
       </c>
@@ -7569,7 +8081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>5.08</v>
       </c>
@@ -7577,7 +8089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>5.4</v>
       </c>
@@ -7585,7 +8097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>5.12</v>
       </c>
@@ -7593,7 +8105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>4.36</v>
       </c>
@@ -7601,7 +8113,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>3.76</v>
       </c>
@@ -7609,7 +8121,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>7.06</v>
       </c>
@@ -7617,7 +8129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>6.53</v>
       </c>
@@ -7625,7 +8137,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>6.15</v>
       </c>
@@ -7638,8 +8150,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7652,23 +8164,23 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>8.13</v>
       </c>
@@ -7676,7 +8188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>7.67</v>
       </c>
@@ -7684,7 +8196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>8.71</v>
       </c>
@@ -7692,7 +8204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>7.35</v>
       </c>
@@ -7700,7 +8212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>10.94</v>
       </c>
@@ -7708,7 +8220,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>10.49</v>
       </c>
@@ -7716,7 +8228,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>10.14</v>
       </c>
@@ -7724,7 +8236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>5.98</v>
       </c>
@@ -7732,7 +8244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>6.74</v>
       </c>
@@ -7740,7 +8252,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>5.33</v>
       </c>
@@ -7748,7 +8260,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>3.67</v>
       </c>
@@ -7756,7 +8268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>2.59</v>
       </c>
@@ -7764,7 +8276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>2.86</v>
       </c>
@@ -7772,7 +8284,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>3.93</v>
       </c>
@@ -7780,7 +8292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>5.01</v>
       </c>
@@ -7788,7 +8300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.4</v>
       </c>
@@ -7796,7 +8308,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>4.34</v>
       </c>
@@ -7804,7 +8316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>5.34</v>
       </c>
@@ -7817,8 +8329,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7831,23 +8343,23 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="1" sqref="A2:H18 H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>3.11</v>
       </c>
@@ -7855,7 +8367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>4.11</v>
       </c>
@@ -7863,7 +8375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2.19</v>
       </c>
@@ -7871,7 +8383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.16</v>
       </c>
@@ -7879,7 +8391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.87</v>
       </c>
@@ -7887,7 +8399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4.45</v>
       </c>
@@ -7895,7 +8407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>5.2</v>
       </c>
@@ -7903,7 +8415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>3.61</v>
       </c>
@@ -7911,7 +8423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>2.86</v>
       </c>
@@ -7919,7 +8431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>4.5</v>
       </c>
@@ -7927,7 +8439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>6.06</v>
       </c>
@@ -7935,7 +8447,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>6.85</v>
       </c>
@@ -7943,7 +8455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>7.12</v>
       </c>
@@ -7951,7 +8463,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>6.59</v>
       </c>
@@ -7959,7 +8471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>6.21</v>
       </c>
@@ -7967,7 +8479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>9.37</v>
       </c>
@@ -7975,7 +8487,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>8.98</v>
       </c>
@@ -7983,7 +8495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>8.71</v>
       </c>
@@ -7996,8 +8508,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Data/testPoints.xlsx
+++ b/Data/testPoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,8 @@
     <sheet name="TiagoLocalizacao3" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TiagoLocalizacao4" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Experiment2" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="dist_rss" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Average_exp2" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="231">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -704,6 +706,24 @@
   </si>
   <si>
     <t xml:space="preserve">TiagoLocalizacao12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia6</t>
   </si>
 </sst>
 </file>
@@ -807,7 +827,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A2:H18"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5548,8 +5568,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="A2:H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5852,7 +5872,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>3.22</v>
+        <v>-3.22</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>5.06</v>
@@ -5876,9 +5896,1222 @@
         <v>-73</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-37</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-39</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>6.68430998682736</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.44093010681705</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5.97608567542334</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>6.03774792451623</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>3.97416657929685</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.894427190999916</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>6.21288982680363</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.04630924234556</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>5.83520350973297</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>5.37609523725166</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3.94993670835369</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.894427190999916</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6.89637585982667</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2.33238075793812</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>6.63095769855305</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>5.88747823775171</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>4.74826284023958</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>-32</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>7.60263112349928</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.69705627484771</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7.4276241154221</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>6.45773954259538</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>5.54707129934346</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.894427190999916</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5.81377674149945</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>5.80220647684999</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>4.75714199914192</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>4.0853396431631</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.4422205101856</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6.53911308970873</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2.03960780543711</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>6.60193910908</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>5.32826425771095</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>4.86148125574912</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7.28010988928052</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1.26491106406735</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7.40172952761718</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>5.95234407607625</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>5.64428914921977</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1.4422205101856</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5.50272659687904</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>5.87891146386812</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4.19980951949014</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4.36554693022535</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.1540659228538</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>6.26418390534633</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.03960780543711</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>6.66945275116332</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>4.83718926650591</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>5.0992156259566</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>7.03420215802759</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1.26491106406735</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>7.46201045295435</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5.51710068786133</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>5.850299137651</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2.1540659228538</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>-68</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.905538513813741</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7.6944135579003</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3.5032556286974</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1.30384048104053</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>4.16773319683494</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>6.7376553785423</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-70</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>1.76113599702011</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>6.8385378554191</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3.95706962283961</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.549181208709839</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>4.16331598608609</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6.052900131342</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>-40</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2.66007518690732</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>6.00166643524946</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4.55376767084137</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.772010362624751</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>4.35765992248133</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>5.43801434348973</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-37</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4.15124077836976</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>5.47583783543669</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>3.25269119345812</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>4.18616769850421</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1.43568798838745</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>3.42940228028151</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3.48631610729721</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>5.38092928777177</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3.25269119345812</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>3.27914623034716</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1.93752419339734</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>3.69789129099275</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2.42866218317822</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>7.22069248756655</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1.45464772367745</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>3.44337044187813</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1.46109547942631</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>5.43124295166401</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>-39</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.86006992921502</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>6.30079360080935</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2.34554897625268</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>3.23394495933372</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1.44844744467999</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>4.55411901469428</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>-54</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>-28</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>-68</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>-73</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>2.3</v>
+        <v>-2.3</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>5.06</v>
@@ -5904,7 +7137,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>1.38</v>
+        <v>-1.38</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>5.06</v>
@@ -5930,7 +7163,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>1.38</v>
+        <v>-1.38</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1.38</v>
@@ -5956,7 +7189,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>1.38</v>
+        <v>-1.38</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2.3</v>
@@ -5982,7 +7215,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>3.22</v>
+        <v>-3.22</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2.3</v>
@@ -6008,7 +7241,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>2.3</v>
+        <v>-2.3</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2.3</v>
@@ -6051,7 +7284,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="A2:H18"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6578,8 +7811,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:H18 F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7100,7 +8333,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="A2:H18"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7627,7 +8860,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:H18 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7806,7 +9039,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:H18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7985,7 +9218,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:H18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8164,7 +9397,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:H18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8343,7 +9576,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="1" sqref="A2:H18 H24"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/testPoints.xlsx
+++ b/Data/testPoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -826,7 +826,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7283,8 +7283,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7811,7 +7811,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
